--- a/AutomationProject/src/test/resources/TestData.xlsx
+++ b/AutomationProject/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mintu\git\NewRepo\AutomationProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE059B-40D9-468A-9FBF-192C47C2159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEF984C-999B-4EC3-9598-E0C49E5B361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>tiger</t>
-  </si>
-  <si>
     <t>duck</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>tom</t>
+  </si>
+  <si>
+    <t>ansul</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,7 +382,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -393,15 +393,15 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationProject/src/test/resources/TestData.xlsx
+++ b/AutomationProject/src/test/resources/TestData.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mintu\git\NewRepo\AutomationProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEF984C-999B-4EC3-9598-E0C49E5B361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4A92F-18B4-411A-8F11-1E5EC36722B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUsers" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNews" sheetId="3" r:id="rId3"/>
+    <sheet name="SubCategory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>admin</t>
   </si>
@@ -40,6 +43,42 @@
   </si>
   <si>
     <t>ansul</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Stest</t>
+  </si>
+  <si>
+    <t>Atest</t>
+  </si>
+  <si>
+    <t>Btest</t>
+  </si>
+  <si>
+    <t>testing news0</t>
+  </si>
+  <si>
+    <t>testing news00</t>
+  </si>
+  <si>
+    <t>veggies</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Cabbage2</t>
+  </si>
+  <si>
+    <t>I-phone</t>
   </si>
 </sst>
 </file>
@@ -362,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -407,4 +446,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F451FCD8-AE39-4160-BA47-68139941B8AE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBB4374-2839-4610-8FB9-4C3F3780B7AE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1167C4-682B-4731-9395-DD3423BB6DF7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationProject/src/test/resources/TestData.xlsx
+++ b/AutomationProject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mintu\git\NewRepo\AutomationProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4A92F-18B4-411A-8F11-1E5EC36722B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0FF3B-7C90-4A3C-ADD0-2C85924D8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -54,15 +54,6 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>Stest</t>
-  </si>
-  <si>
-    <t>Atest</t>
-  </si>
-  <si>
-    <t>Btest</t>
-  </si>
-  <si>
     <t>testing news0</t>
   </si>
   <si>
@@ -79,6 +70,15 @@
   </si>
   <si>
     <t>I-phone</t>
+  </si>
+  <si>
+    <t>LilyMol</t>
+  </si>
+  <si>
+    <t>AlphonsaMol</t>
+  </si>
+  <si>
+    <t>BerryngalsMol</t>
   </si>
 </sst>
 </file>
@@ -452,15 +452,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F451FCD8-AE39-4160-BA47-68139941B8AE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -471,7 +474,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -482,7 +485,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>123</v>
@@ -511,12 +514,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1167C4-682B-4731-9395-DD3423BB6DF7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -539,18 +542,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationProject/src/test/resources/TestData.xlsx
+++ b/AutomationProject/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mintu\git\NewRepo\AutomationProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0FF3B-7C90-4A3C-ADD0-2C85924D8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580524A6-32EC-48C0-9230-6EF781F5D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,13 +72,13 @@
     <t>I-phone</t>
   </si>
   <si>
-    <t>LilyMol</t>
-  </si>
-  <si>
     <t>AlphonsaMol</t>
   </si>
   <si>
     <t>BerryngalsMol</t>
+  </si>
+  <si>
+    <t>TeenaMol</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>123</v>
